--- a/output/instance_SMALL_scenario_2/dual_variables_iteration4.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration4.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0</v>
+        <v>0.4333053633307443</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>1.455555748155204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>1.080091756049622</v>
       </c>
     </row>
     <row r="41">
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1.735097402403539</v>
+        <v>0.9275163421272764</v>
       </c>
     </row>
     <row r="62">
@@ -991,12 +991,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5740446.730256481</v>
+        <v>8308921.653964277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4847895.008920779</v>
+        <v>8399413.32758919</v>
       </c>
     </row>
     <row r="4">

--- a/output/instance_SMALL_scenario_2/dual_variables_iteration4.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration4.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4333053633307443</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>1.080091756049622</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -845,7 +845,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>0.2533208370149462</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0</v>
+        <v>3.949702446230194</v>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9275163421272764</v>
+        <v>1.134696511269875</v>
       </c>
     </row>
     <row r="62">
@@ -957,12 +957,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-1.737495796983053</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-1.110490881351463</v>
       </c>
     </row>
   </sheetData>
@@ -991,12 +991,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8308921.653964277</v>
+        <v>1707838.137619551</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8399413.32758919</v>
+        <v>3127940.730554767</v>
       </c>
     </row>
     <row r="4">
